--- a/Entity_Filters_Mapping.xlsx
+++ b/Entity_Filters_Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stuffs\azure-architecture-portal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5B1BFBB-150D-4DD9-A881-CF12F58E7DEB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C61E42A-52C1-4075-B221-868AC2C53001}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7920" xr2:uid="{06083AC4-1295-4C63-8C62-C1920C305AB3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Azure_Entity_Id</t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>Filter_Value</t>
+  </si>
+  <si>
+    <t>Non Realtime</t>
+  </si>
+  <si>
+    <t>Realtime</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -92,6 +101,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CF87F783-FEBB-4CF2-94C6-FB0122E647AE}" name="Table1" displayName="Table1" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{F1164AA2-63F8-432B-B1F0-5A911D0DBDD3}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{A0BCA4CA-11D2-407F-B3E6-3705FA32EE32}" name="Azure_Entity_Id"/>
+    <tableColumn id="2" xr3:uid="{3379579F-21FF-47CA-859E-950D69A1C38D}" name="Filter_Id"/>
+    <tableColumn id="3" xr3:uid="{1EF65324-AA41-4597-AA0B-A6854984B5DA}" name="Filter_Value"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E616CA-66EC-4987-9031-EB48FBCB3A5E}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,8 +436,77 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>111</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>112</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>113</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>116</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>117</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>122</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>